--- a/data/trans_orig/P6906-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB15B0A8-5ED3-4B89-B359-2C5A746B2B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ECE8793-10DD-4481-89A5-ED33A04D3B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E28D9AD7-CEF8-47DC-9793-9FF535A83324}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D7E4075-505A-4B30-8154-49363B18E24F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>12,05%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>87,95%</t>
   </si>
   <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>86,44%</t>
   </si>
   <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,7 +140,7 @@
     <t>23,72%</t>
   </si>
   <si>
-    <t>18,53%</t>
+    <t>18,76%</t>
   </si>
   <si>
     <t>29,58%</t>
@@ -149,19 +149,19 @@
     <t>23,77%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
   </si>
   <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>76,28%</t>
@@ -170,25 +170,25 @@
     <t>70,42%</t>
   </si>
   <si>
-    <t>81,47%</t>
+    <t>81,24%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
   </si>
   <si>
     <t>76,27%</t>
   </si>
   <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>34,04%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
   <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
   </si>
   <si>
     <t>77,55%</t>
   </si>
   <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
   </si>
   <si>
     <t>71,33%</t>
   </si>
   <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
   <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
   <si>
     <t>77,71%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,418 +311,424 @@
     <t>23,46%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>21,15%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>76,54%</t>
   </si>
   <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>78,85%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>25,12%</t>
   </si>
   <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
   </si>
   <si>
     <t>68,76%</t>
   </si>
   <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
   </si>
   <si>
     <t>33,71%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
   </si>
   <si>
     <t>31,69%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
   </si>
   <si>
     <t>32,7%</t>
   </si>
   <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
   </si>
   <si>
     <t>68,31%</t>
   </si>
   <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
   </si>
   <si>
     <t>26,05%</t>
   </si>
   <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>72,56%</t>
   </si>
   <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2015 (Tasa respuesta: 8,05%)</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>72,55%</t>
   </si>
   <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>31,82%</t>
   </si>
   <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
     <t>24,0%</t>
   </si>
   <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>76,0%</t>
   </si>
   <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>67,36%</t>
   </si>
   <si>
-    <t>73,02%</t>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
+    <t>76,7%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
@@ -731,67 +737,79 @@
     <t>11,34%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>7,24%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
   <si>
     <t>88,66%</t>
   </si>
   <si>
-    <t>96,48%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>86,16%</t>
   </si>
   <si>
-    <t>92,76%</t>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>20,43%</t>
   </si>
   <si>
-    <t>16,84%</t>
+    <t>16,69%</t>
   </si>
   <si>
     <t>24,14%</t>
@@ -800,19 +818,19 @@
     <t>83,25%</t>
   </si>
   <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>75,65%</t>
   </si>
   <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
   </si>
   <si>
     <t>79,57%</t>
@@ -821,115 +839,109 @@
     <t>75,86%</t>
   </si>
   <si>
-    <t>83,16%</t>
+    <t>83,31%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
   </si>
   <si>
     <t>26,6%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
   </si>
   <si>
     <t>81,33%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>73,4%</t>
   </si>
   <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>77,31%</t>
   </si>
   <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163527E9-F3C1-459B-8DB7-E278F4E3C145}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45707F53-8819-4B0E-8D67-B604F0877057}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2092,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AEB0F9-EAD3-4881-AA7B-B0D628EC1199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92AC89A-42D8-4CF4-B444-BFC3AAA41779}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2843,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A4C806-8B31-43A0-95D1-8F6254B10702}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E36AF09-80A7-4D6E-A349-6C0AE25D9C87}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2967,13 +2979,13 @@
         <v>12040</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2982,13 +2994,13 @@
         <v>4948</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -2997,13 +3009,13 @@
         <v>16988</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3030,13 @@
         <v>43541</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3033,13 +3045,13 @@
         <v>13076</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -3048,13 +3060,13 @@
         <v>56617</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3134,13 @@
         <v>44223</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -3137,13 +3149,13 @@
         <v>39637</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -3152,13 +3164,13 @@
         <v>83860</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3185,13 @@
         <v>185159</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>83</v>
@@ -3188,13 +3200,13 @@
         <v>84928</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>258</v>
@@ -3203,13 +3215,13 @@
         <v>270087</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3289,13 @@
         <v>27372</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -3292,13 +3304,13 @@
         <v>26016</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -3307,13 +3319,13 @@
         <v>53389</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3340,13 @@
         <v>36156</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -3343,13 +3355,13 @@
         <v>47692</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3358,13 +3370,13 @@
         <v>83847</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,10 +3444,10 @@
         <v>83636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>216</v>
@@ -3453,7 +3465,7 @@
         <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -3462,13 +3474,13 @@
         <v>154236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3495,13 @@
         <v>264855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -3498,13 +3510,13 @@
         <v>145697</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>389</v>
@@ -3513,13 +3525,13 @@
         <v>410552</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2F7928-70F3-41B7-8FBC-95AF3CBDE3AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62C267-8FED-46C3-8A40-F225C8544DDA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3730,13 @@
         <v>3457</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3733,13 +3745,13 @@
         <v>4771</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3748,13 +3760,13 @@
         <v>8229</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3781,13 @@
         <v>27023</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -3784,13 +3796,13 @@
         <v>24223</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3799,13 +3811,13 @@
         <v>51245</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3885,13 @@
         <v>41769</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -3888,13 +3900,13 @@
         <v>56968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -3903,13 +3915,13 @@
         <v>98737</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3936,13 @@
         <v>207581</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>226</v>
@@ -3939,13 +3951,13 @@
         <v>176993</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>425</v>
@@ -3954,13 +3966,13 @@
         <v>384574</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4040,13 @@
         <v>20422</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4043,13 +4055,13 @@
         <v>34312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -4058,13 +4070,13 @@
         <v>54734</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4091,13 @@
         <v>51395</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -4094,13 +4106,13 @@
         <v>63784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>135</v>
@@ -4109,13 +4121,13 @@
         <v>115179</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4195,13 @@
         <v>65648</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>133</v>
@@ -4198,13 +4210,13 @@
         <v>96051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
@@ -4213,13 +4225,13 @@
         <v>161699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4246,13 @@
         <v>285998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>340</v>
@@ -4249,13 +4261,13 @@
         <v>265001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>616</v>
@@ -4264,13 +4276,13 @@
         <v>550999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6906-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ECE8793-10DD-4481-89A5-ED33A04D3B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34637A6F-C237-47EB-9090-E0CF63A79002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D7E4075-505A-4B30-8154-49363B18E24F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4805865-94DA-45AE-9A0A-859F0B811988}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,28 +77,28 @@
     <t>12,05%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>87,95%</t>
   </si>
   <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>86,44%</t>
   </si>
   <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,748 +140,748 @@
     <t>23,72%</t>
   </si>
   <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
   </si>
   <si>
     <t>32,21%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
   </si>
   <si>
     <t>67,79%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
   </si>
   <si>
     <t>59,82%</t>
@@ -1353,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45707F53-8819-4B0E-8D67-B604F0877057}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98964379-F406-4D7C-9CE9-35E26FDA2B0A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92AC89A-42D8-4CF4-B444-BFC3AAA41779}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF169292-4AD5-4104-B6C4-DF0929493674}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2696,10 +2696,10 @@
         <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -2708,13 +2708,13 @@
         <v>63492</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -2723,13 +2723,13 @@
         <v>148212</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2744,13 @@
         <v>240546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>138</v>
@@ -2759,13 +2759,13 @@
         <v>151343</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="M14" s="7">
         <v>369</v>
@@ -2774,13 +2774,13 @@
         <v>391889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E36AF09-80A7-4D6E-A349-6C0AE25D9C87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E9C36E-5CCD-41E8-81F6-79D8B9EE381B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,13 +2979,13 @@
         <v>12040</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2994,13 +2994,13 @@
         <v>4948</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3009,13 +3009,13 @@
         <v>16988</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3030,13 @@
         <v>43541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3045,13 +3045,13 @@
         <v>13076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -3060,13 +3060,13 @@
         <v>56617</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3134,13 @@
         <v>44223</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -3149,13 +3149,13 @@
         <v>39637</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -3164,13 +3164,13 @@
         <v>83860</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3185,13 @@
         <v>185159</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>83</v>
@@ -3200,13 +3200,13 @@
         <v>84928</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>258</v>
@@ -3215,13 +3215,13 @@
         <v>270087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3289,13 @@
         <v>27372</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -3304,13 +3304,13 @@
         <v>26016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -3319,13 +3319,13 @@
         <v>53389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3340,13 @@
         <v>36156</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -3355,13 +3355,13 @@
         <v>47692</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3370,13 +3370,13 @@
         <v>83847</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3444,13 @@
         <v>83636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3459,13 +3459,13 @@
         <v>70601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -3474,13 +3474,13 @@
         <v>154236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3495,13 @@
         <v>264855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -3510,13 +3510,13 @@
         <v>145697</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>389</v>
@@ -3525,13 +3525,13 @@
         <v>410552</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62C267-8FED-46C3-8A40-F225C8544DDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBE9D6D-4D12-43CF-AA41-EBECDE28AC4A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3730,13 @@
         <v>3457</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3745,13 +3745,13 @@
         <v>4771</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3760,13 +3760,13 @@
         <v>8229</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3781,13 @@
         <v>27023</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -3796,13 +3796,13 @@
         <v>24223</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3811,13 +3811,13 @@
         <v>51245</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3885,13 @@
         <v>41769</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -3900,13 +3900,13 @@
         <v>56968</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -3915,13 +3915,13 @@
         <v>98737</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3936,13 @@
         <v>207581</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>226</v>
@@ -3951,13 +3951,13 @@
         <v>176993</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>425</v>
@@ -3966,13 +3966,13 @@
         <v>384574</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4040,13 @@
         <v>20422</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4055,13 +4055,13 @@
         <v>34312</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -4070,13 +4070,13 @@
         <v>54734</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4091,13 @@
         <v>51395</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -4106,13 +4106,13 @@
         <v>63784</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>135</v>
@@ -4121,7 +4121,7 @@
         <v>115179</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>281</v>

--- a/data/trans_orig/P6906-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34637A6F-C237-47EB-9090-E0CF63A79002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B1E1BA0-ABAC-4A1F-BA06-31A1238DF6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4805865-94DA-45AE-9A0A-859F0B811988}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A50364E7-B352-4581-A7F6-400AD727CAC5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>87,95%</t>
   </si>
   <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
   </si>
   <si>
     <t>86,44%</t>
   </si>
   <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>23,72%</t>
   </si>
   <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
   </si>
   <si>
     <t>76,27%</t>
   </si>
   <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>34,04%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
   </si>
   <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>77,55%</t>
   </si>
   <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>71,33%</t>
   </si>
   <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>77,71%</t>
   </si>
   <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,199 +311,217 @@
     <t>23,46%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
   </si>
   <si>
     <t>21,15%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
   </si>
   <si>
     <t>76,54%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>78,85%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>25,12%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
   </si>
   <si>
     <t>68,76%</t>
   </si>
   <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
   </si>
   <si>
     <t>33,71%</t>
   </si>
   <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
   </si>
   <si>
     <t>31,69%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>32,7%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>68,31%</t>
   </si>
   <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
   </si>
   <si>
     <t>26,05%</t>
   </si>
   <si>
-    <t>31,44%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>29,55%</t>
   </si>
   <si>
-    <t>36,19%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>31,77%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>68,56%</t>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
   <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>63,81%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
   </si>
   <si>
     <t>72,56%</t>
   </si>
   <si>
-    <t>68,23%</t>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2016 (Tasa respuesta: 8,05%)</t>
@@ -512,217 +530,199 @@
     <t>21,66%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
   </si>
   <si>
     <t>78,34%</t>
   </si>
   <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>72,55%</t>
   </si>
   <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>31,82%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
   </si>
   <si>
     <t>80,72%</t>
   </si>
   <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
   </si>
   <si>
     <t>68,18%</t>
   </si>
   <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>43,09%</t>
   </si>
   <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
   </si>
   <si>
     <t>38,9%</t>
   </si>
   <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
   </si>
   <si>
     <t>56,91%</t>
   </si>
   <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
   </si>
   <si>
     <t>64,7%</t>
   </si>
   <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>61,1%</t>
   </si>
   <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>32,64%</t>
   </si>
   <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
+    <t>26,98%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
   </si>
   <si>
     <t>67,36%</t>
   </si>
   <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
+    <t>73,02%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
@@ -731,79 +731,67 @@
     <t>11,34%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
+    <t>3,52%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>7,24%</t>
   </si>
   <si>
     <t>88,66%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>96,48%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>86,16%</t>
   </si>
   <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>92,76%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>20,43%</t>
   </si>
   <si>
-    <t>16,69%</t>
+    <t>16,84%</t>
   </si>
   <si>
     <t>24,14%</t>
@@ -812,19 +800,19 @@
     <t>83,25%</t>
   </si>
   <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>75,65%</t>
   </si>
   <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
   </si>
   <si>
     <t>79,57%</t>
@@ -833,115 +821,115 @@
     <t>75,86%</t>
   </si>
   <si>
-    <t>83,31%</t>
+    <t>83,16%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
   </si>
   <si>
     <t>34,98%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
   </si>
   <si>
     <t>32,21%</t>
   </si>
   <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>26,6%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>81,33%</t>
   </si>
   <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
   </si>
   <si>
     <t>73,4%</t>
   </si>
   <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
   </si>
   <si>
     <t>77,31%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98964379-F406-4D7C-9CE9-35E26FDA2B0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC24965-DDEC-4ABB-B5AA-992DB0BCBBA8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF169292-4AD5-4104-B6C4-DF0929493674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3EEDDA-F4C9-4099-B20C-55A0A43E548C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2696,10 +2684,10 @@
         <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -2708,13 +2696,13 @@
         <v>63492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -2723,13 +2711,13 @@
         <v>148212</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2732,13 @@
         <v>240546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>138</v>
@@ -2759,13 +2747,13 @@
         <v>151343</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>369</v>
@@ -2774,13 +2762,13 @@
         <v>391889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E9C36E-5CCD-41E8-81F6-79D8B9EE381B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD78CA6C-1449-4053-ABF4-A1A6D5604B5B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,13 +2967,13 @@
         <v>12040</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2994,13 +2982,13 @@
         <v>4948</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3009,13 +2997,13 @@
         <v>16988</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3018,13 @@
         <v>43541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3045,13 +3033,13 @@
         <v>13076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -3060,13 +3048,13 @@
         <v>56617</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3122,13 @@
         <v>44223</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -3149,13 +3137,13 @@
         <v>39637</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -3164,13 +3152,13 @@
         <v>83860</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3173,13 @@
         <v>185159</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>83</v>
@@ -3200,13 +3188,13 @@
         <v>84928</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>258</v>
@@ -3215,13 +3203,13 @@
         <v>270087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3277,13 @@
         <v>27372</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -3304,13 +3292,13 @@
         <v>26016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -3319,13 +3307,13 @@
         <v>53389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3328,13 @@
         <v>36156</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -3355,13 +3343,13 @@
         <v>47692</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3370,13 +3358,13 @@
         <v>83847</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3432,13 @@
         <v>83636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3459,13 +3447,13 @@
         <v>70601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -3474,13 +3462,13 @@
         <v>154236</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3483,13 @@
         <v>264855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -3510,10 +3498,10 @@
         <v>145697</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>224</v>
@@ -3606,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBE9D6D-4D12-43CF-AA41-EBECDE28AC4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F8D498-1300-4D01-9E20-18B8E3319C3F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3736,7 +3724,7 @@
         <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3745,13 +3733,13 @@
         <v>4771</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -3760,13 +3748,13 @@
         <v>8229</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3769,13 @@
         <v>27023</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -3796,13 +3784,13 @@
         <v>24223</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3811,13 +3799,13 @@
         <v>51245</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3873,13 @@
         <v>41769</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -3900,13 +3888,13 @@
         <v>56968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
@@ -3915,13 +3903,13 @@
         <v>98737</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3924,13 @@
         <v>207581</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>226</v>
@@ -3951,13 +3939,13 @@
         <v>176993</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>425</v>
@@ -3966,13 +3954,13 @@
         <v>384574</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4028,13 @@
         <v>20422</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4055,13 +4043,13 @@
         <v>34312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -4070,13 +4058,13 @@
         <v>54734</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4079,13 @@
         <v>51395</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -4106,13 +4094,13 @@
         <v>63784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>135</v>
@@ -4121,13 +4109,13 @@
         <v>115179</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4183,13 @@
         <v>65648</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>133</v>
@@ -4210,13 +4198,13 @@
         <v>96051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
@@ -4225,13 +4213,13 @@
         <v>161699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4234,13 @@
         <v>285998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>340</v>
@@ -4261,13 +4249,13 @@
         <v>265001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>616</v>
@@ -4276,13 +4264,13 @@
         <v>550999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6906-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B1E1BA0-ABAC-4A1F-BA06-31A1238DF6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1A6C05F-175E-4F30-8178-8E7C4308890C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A50364E7-B352-4581-A7F6-400AD727CAC5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{61BEDF25-DFD9-4C02-9FB2-61C149B8D833}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -728,208 +728,214 @@
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
   </si>
   <si>
     <t>17,62%</t>
   </si>
   <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
   </si>
   <si>
     <t>82,38%</t>
   </si>
   <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC24965-DDEC-4ABB-B5AA-992DB0BCBBA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6F42CD-B777-40D3-B270-568A37CC3757}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2092,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3EEDDA-F4C9-4099-B20C-55A0A43E548C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00ED7E3-0436-4068-915A-39749A9E2061}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2843,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD78CA6C-1449-4053-ABF4-A1A6D5604B5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11B5C64-E04C-4A49-B212-86F68828ED4E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3594,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F8D498-1300-4D01-9E20-18B8E3319C3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4495E30F-8FE0-457A-93C2-217B72B42E32}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3721,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>3457</v>
+        <v>3365</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3724,37 +3730,37 @@
         <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>4771</v>
+        <v>4395</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>8229</v>
+        <v>7760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,46 +3772,46 @@
         <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>27023</v>
+        <v>25849</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>24223</v>
+        <v>20591</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
       </c>
       <c r="N5" s="7">
-        <v>51245</v>
+        <v>46440</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3823,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="7">
-        <v>30480</v>
+        <v>29214</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3838,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="7">
-        <v>28994</v>
+        <v>24986</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3853,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>59474</v>
+        <v>54200</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3870,46 +3876,46 @@
         <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>41769</v>
+        <v>41311</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
       </c>
       <c r="I7" s="7">
-        <v>56968</v>
+        <v>53167</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>121</v>
       </c>
       <c r="N7" s="7">
-        <v>98737</v>
+        <v>94478</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,46 +3927,46 @@
         <v>199</v>
       </c>
       <c r="D8" s="7">
-        <v>207581</v>
+        <v>198269</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>226</v>
       </c>
       <c r="I8" s="7">
-        <v>176993</v>
+        <v>185201</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>425</v>
       </c>
       <c r="N8" s="7">
-        <v>384574</v>
+        <v>383470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3978,7 @@
         <v>239</v>
       </c>
       <c r="D9" s="7">
-        <v>249350</v>
+        <v>239580</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3987,7 +3993,7 @@
         <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>233961</v>
+        <v>238368</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +4008,7 @@
         <v>546</v>
       </c>
       <c r="N9" s="7">
-        <v>483311</v>
+        <v>477948</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4025,46 +4031,46 @@
         <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>20422</v>
+        <v>19766</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>34312</v>
+        <v>31644</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>54734</v>
+        <v>51410</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,46 +4082,46 @@
         <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>51395</v>
+        <v>49760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
       </c>
       <c r="I11" s="7">
-        <v>63784</v>
+        <v>59051</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>135</v>
       </c>
       <c r="N11" s="7">
-        <v>115179</v>
+        <v>108811</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,7 +4133,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>71817</v>
+        <v>69526</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4148,7 @@
         <v>131</v>
       </c>
       <c r="I12" s="7">
-        <v>98096</v>
+        <v>90695</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4163,7 @@
         <v>194</v>
       </c>
       <c r="N12" s="7">
-        <v>169913</v>
+        <v>160221</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4180,46 +4186,46 @@
         <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>65648</v>
+        <v>64442</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>133</v>
       </c>
       <c r="I13" s="7">
-        <v>96051</v>
+        <v>89206</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
       </c>
       <c r="N13" s="7">
-        <v>161699</v>
+        <v>153648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,46 +4237,46 @@
         <v>276</v>
       </c>
       <c r="D14" s="7">
-        <v>285998</v>
+        <v>273878</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>340</v>
       </c>
       <c r="I14" s="7">
-        <v>265001</v>
+        <v>264843</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>616</v>
       </c>
       <c r="N14" s="7">
-        <v>550999</v>
+        <v>538721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4288,7 @@
         <v>337</v>
       </c>
       <c r="D15" s="7">
-        <v>351646</v>
+        <v>338320</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4297,7 +4303,7 @@
         <v>473</v>
       </c>
       <c r="I15" s="7">
-        <v>361052</v>
+        <v>354049</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4318,7 @@
         <v>810</v>
       </c>
       <c r="N15" s="7">
-        <v>712698</v>
+        <v>692369</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
